--- a/documents/sprint/Sprint_Review_Protocol_Loot_Ledger_2.xlsx
+++ b/documents/sprint/Sprint_Review_Protocol_Loot_Ledger_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\itp-project\ITP-DnD-Itembar\documents\sprint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20114F41-E8AB-40CB-8068-78CB70FB31F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95E35C0-8F47-4A78-8A2F-D75BF9C64C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{5C77D34F-34C3-4D2F-849C-09193AE86D67}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5C77D34F-34C3-4D2F-849C-09193AE86D67}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -385,11 +385,20 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -397,6 +406,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -405,42 +441,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -764,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE3C726-37E9-451B-9308-D99ECF6E7468}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -781,28 +781,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5"/>
@@ -816,101 +816,101 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="21">
+      <c r="B4" s="13"/>
+      <c r="C4" s="16">
         <v>2</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="22"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="23">
+      <c r="B5" s="15"/>
+      <c r="C5" s="18">
         <v>45398</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="25"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="24">
+      <c r="B6" s="15"/>
+      <c r="C6" s="19">
         <v>5</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="25"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="26" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="27"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="17" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="18"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="17" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="18"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="17" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="12"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="28" t="s">
         <v>26</v>
       </c>
@@ -920,29 +920,29 @@
       <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
@@ -980,12 +980,16 @@
       <c r="C16" s="7">
         <v>10</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="7">
+        <v>11</v>
+      </c>
       <c r="E16" s="2">
         <f t="shared" ref="E16:E21" si="0">D16-C16</f>
-        <v>-10</v>
-      </c>
-      <c r="F16" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
       <c r="G16" s="4"/>
       <c r="H16" s="7"/>
     </row>
@@ -999,12 +1003,16 @@
       <c r="C17" s="7">
         <v>5</v>
       </c>
-      <c r="D17" s="7"/>
+      <c r="D17" s="7">
+        <v>8</v>
+      </c>
       <c r="E17" s="2">
         <f t="shared" si="0"/>
-        <v>-5</v>
-      </c>
-      <c r="F17" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
       <c r="G17" s="4"/>
       <c r="H17" s="7" t="s">
         <v>27</v>
@@ -1020,12 +1028,16 @@
       <c r="C18" s="7">
         <v>15</v>
       </c>
-      <c r="D18" s="7"/>
+      <c r="D18" s="7">
+        <v>10</v>
+      </c>
       <c r="E18" s="2">
         <f t="shared" si="0"/>
-        <v>-15</v>
-      </c>
-      <c r="F18" s="3"/>
+        <v>-5</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
       <c r="G18" s="4"/>
       <c r="H18" s="7" t="s">
         <v>27</v>
@@ -1041,12 +1053,16 @@
       <c r="C19" s="7">
         <v>5</v>
       </c>
-      <c r="D19" s="7"/>
+      <c r="D19" s="7">
+        <v>5</v>
+      </c>
       <c r="E19" s="2">
         <f t="shared" si="0"/>
-        <v>-5</v>
-      </c>
-      <c r="F19" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
       <c r="G19" s="4"/>
       <c r="H19" s="7" t="s">
         <v>27</v>
@@ -1062,12 +1078,16 @@
       <c r="C20" s="7">
         <v>10</v>
       </c>
-      <c r="D20" s="7"/>
+      <c r="D20" s="7">
+        <v>11</v>
+      </c>
       <c r="E20" s="2">
         <f t="shared" si="0"/>
-        <v>-10</v>
-      </c>
-      <c r="F20" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
       <c r="G20" s="4"/>
       <c r="H20" s="7" t="s">
         <v>27</v>
@@ -1083,12 +1103,16 @@
       <c r="C21" s="7">
         <v>10</v>
       </c>
-      <c r="D21" s="7"/>
+      <c r="D21" s="7">
+        <v>10</v>
+      </c>
       <c r="E21" s="2">
         <f t="shared" si="0"/>
-        <v>-10</v>
-      </c>
-      <c r="F21" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
       <c r="G21" s="4"/>
       <c r="H21" s="7" t="s">
         <v>27</v>
@@ -1140,11 +1164,11 @@
       <c r="D26" s="6"/>
       <c r="E26" s="6">
         <f>SUM(E16:E25)</f>
-        <v>-55</v>
+        <v>0</v>
       </c>
       <c r="F26" s="6">
         <f>COUNT(F16:F25)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G26" s="6">
         <f>COUNT(G16:G25)</f>
@@ -1165,6 +1189,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="C11:G11"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="C10:G10"/>
@@ -1179,12 +1209,6 @@
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="C11:G11"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
